--- a/backend/data/patients.xlsx
+++ b/backend/data/patients.xlsx
@@ -1,41 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokat\OneDrive\Desktop\React Projects\Hospital\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A69F7D6-95C4-4FD6-A516-B31F97F917B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>IP No</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Referral Name</t>
+  </si>
+  <si>
+    <t>Referral Phone</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>IP001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Dr. Reddy</t>
+  </si>
+  <si>
+    <t>9123456789</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>IP021</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>devara</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>9876433210</t>
+  </si>
+  <si>
+    <t>goa</t>
+  </si>
+  <si>
+    <t>IP0023</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>salaar</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>9879896745</t>
+  </si>
+  <si>
+    <t>khansaar</t>
+  </si>
+  <si>
+    <t>varadha</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>IP0025</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>chittor</t>
+  </si>
+  <si>
+    <t>srivalli</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>a2424</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>asdc</t>
+  </si>
+  <si>
+    <t>2323232323</t>
+  </si>
+  <si>
+    <t>aadccr</t>
+  </si>
+  <si>
+    <t>crcr</t>
+  </si>
+  <si>
+    <t>sd43</t>
+  </si>
+  <si>
+    <t>sdcece</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>3434343443</t>
+  </si>
+  <si>
+    <t>sac</t>
+  </si>
+  <si>
+    <t>ssdf</t>
+  </si>
+  <si>
+    <t>1212121232</t>
+  </si>
+  <si>
+    <t>swe45</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>nxds</t>
+  </si>
+  <si>
+    <t>s ee</t>
+  </si>
+  <si>
+    <t>scrr</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +226,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,160 +567,546 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B1" t="str">
-        <v>IP No</v>
-      </c>
-      <c r="C1" t="str">
-        <v>S.No</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Age</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Phone</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Place</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Referral Name</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Referral Phone</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2025-09-02</v>
-      </c>
-      <c r="B2" t="str">
-        <v>IP001</v>
-      </c>
-      <c r="C2" t="str">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
-        <v>John Doe</v>
-      </c>
-      <c r="E2" t="str">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="str">
-        <v>9876543210</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Hyderabad</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Dr. Reddy</v>
-      </c>
-      <c r="I2" t="str">
-        <v>9123456789</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-04-02</v>
-      </c>
-      <c r="B3" t="str">
-        <v>IP021</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2</v>
-      </c>
-      <c r="D3" t="str">
-        <v>devara</v>
-      </c>
-      <c r="E3" t="str">
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="str">
-        <v>9876433210</v>
-      </c>
-      <c r="G3" t="str">
-        <v>goa</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Dr. Reddy</v>
-      </c>
-      <c r="I3" t="str">
-        <v>9123456789</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2025-09-02</v>
-      </c>
-      <c r="B4" t="str">
-        <v>IP0023</v>
-      </c>
-      <c r="C4" t="str">
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>salaar</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="str">
-        <v>9879896745</v>
-      </c>
-      <c r="G4" t="str">
-        <v>khansaar</v>
-      </c>
-      <c r="H4" t="str">
-        <v>varadha</v>
-      </c>
-      <c r="I4" t="str">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2025-09-02</v>
-      </c>
-      <c r="B5" t="str">
-        <v>IP0025</v>
-      </c>
-      <c r="C5" t="str">
-        <v>4</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Pushpa</v>
-      </c>
-      <c r="E5" t="str">
-        <v>45</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1234567890</v>
-      </c>
-      <c r="G5" t="str">
-        <v>chittor</v>
-      </c>
-      <c r="H5" t="str">
-        <v>srivalli</v>
-      </c>
-      <c r="I5" t="str">
-        <v>0987654321</v>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>3434343434</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>3434343434</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>3434343434</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>3434343434</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>3434343434</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>3434343434</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>3434343434</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>3434343434</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>3434343434</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>3434343434</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>3434343434</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18">
+        <v>5454545454</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError sqref="A1:I1 A3:I4 B2:I2 C8:D8 A7:C7 A5 C5:I5 A6:C6 E6:I6 E7:I7 H8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>